--- a/biology/Botanique/Saule_de_Hooker/Saule_de_Hooker.xlsx
+++ b/biology/Botanique/Saule_de_Hooker/Saule_de_Hooker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix hookeriana est une espèce de saule connue également sous le nom de Saule des dunes, Saule des côtes et Saule de Hooker. 
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Salix amplifolia (y compris  var. 'tomentosa' et 'laurifolia') ;
 Salix piperi.</t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Salix hookeriana est un buisson ou un arbre pouvant atteindre 8 m de haut. Il forme parfois des fourrés buissonnants colonisateurs. 
 Ses feuilles mesurent jusqu'à 11 cm de long. Généralement de forme ovale, ondulées sur les bords, velues à laineuses, elles présentent une surface brillante en partie supérieure.
@@ -576,9 +592,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme latin hookeriana se réfère à Sir Joseph D. Hooker[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme latin hookeriana se réfère à Sir Joseph D. Hooker.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est native de la côte ouest  de l'Amérique du Nord, de l'Alaska au nord de la Californie, où elle pousse dans un habitat côtier, des plages, des mares, des étangs de plaines et des vallées encaissées.
 			Dans le Humboldt Bay National Wildlife Refuge, en Californie.
